--- a/data/trans_orig/P17_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>466726</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>441684</v>
+        <v>441433</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>490444</v>
+        <v>490786</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.673453343306303</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6373193682678462</v>
+        <v>0.6369571358517371</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7076763528605835</v>
+        <v>0.7081708070734689</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>568</v>
@@ -765,19 +765,19 @@
         <v>560722</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>539561</v>
+        <v>541833</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>579015</v>
+        <v>581055</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.814586982704692</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7838461269229183</v>
+        <v>0.7871462707665189</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8411620847384662</v>
+        <v>0.8441263238509659</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1033</v>
@@ -786,19 +786,19 @@
         <v>1027448</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>997768</v>
+        <v>991913</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1057970</v>
+        <v>1059748</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7437809576212169</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.722295240228126</v>
+        <v>0.7180570659715345</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7658760595625749</v>
+        <v>0.7671637407849747</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>226308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>202590</v>
+        <v>202248</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>251350</v>
+        <v>251601</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.326546656693697</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2923236471394162</v>
+        <v>0.291829192926531</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3626806317321536</v>
+        <v>0.3630428641482629</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>128</v>
@@ -836,19 +836,19 @@
         <v>127629</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>109336</v>
+        <v>107296</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>148790</v>
+        <v>146518</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.185413017295308</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1588379152615333</v>
+        <v>0.1558736761490337</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2161538730770816</v>
+        <v>0.2128537292334811</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>345</v>
@@ -857,19 +857,19 @@
         <v>353937</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>323415</v>
+        <v>321637</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>383617</v>
+        <v>389472</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2562190423787831</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2341239404374249</v>
+        <v>0.2328362592150251</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.277704759771874</v>
+        <v>0.2819429340284644</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>627775</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>595721</v>
+        <v>595751</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>659712</v>
+        <v>656097</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6533798277045657</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6200187485152271</v>
+        <v>0.6200499890567389</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6866194862921446</v>
+        <v>0.682857114984452</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>714</v>
@@ -982,19 +982,19 @@
         <v>759912</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>732042</v>
+        <v>729116</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>784795</v>
+        <v>782448</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7847140321435955</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7559351395287154</v>
+        <v>0.7529136214067587</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8104101086800112</v>
+        <v>0.8079863225623813</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1307</v>
@@ -1003,19 +1003,19 @@
         <v>1387686</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1345028</v>
+        <v>1340772</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1424887</v>
+        <v>1424587</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7193050087128412</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6971933274484174</v>
+        <v>0.6949870866801247</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7385880293256476</v>
+        <v>0.7384327571369314</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>333036</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>301099</v>
+        <v>304714</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>365090</v>
+        <v>365060</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3466201722954343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3133805137078554</v>
+        <v>0.3171428850155481</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.379981251484773</v>
+        <v>0.3799500109432611</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>194</v>
@@ -1053,19 +1053,19 @@
         <v>208481</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>183598</v>
+        <v>185945</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>236351</v>
+        <v>239277</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2152859678564045</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1895898913199889</v>
+        <v>0.1920136774376186</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2440648604712848</v>
+        <v>0.2470863785932415</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>496</v>
@@ -1074,19 +1074,19 @@
         <v>541518</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>504317</v>
+        <v>504617</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>584176</v>
+        <v>588432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2806949912871587</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2614119706743524</v>
+        <v>0.2615672428630686</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3028066725515825</v>
+        <v>0.3050129133198753</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>376686</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>348451</v>
+        <v>350584</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>405865</v>
+        <v>403603</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5572266180153856</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5154587016688121</v>
+        <v>0.5186150884086665</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6003916747789866</v>
+        <v>0.5970448154255661</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>515</v>
@@ -1199,19 +1199,19 @@
         <v>504828</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>484109</v>
+        <v>481986</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>527030</v>
+        <v>527195</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7382247678393548</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7079265741565084</v>
+        <v>0.7048220726376102</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7706912897694786</v>
+        <v>0.7709323002318158</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>874</v>
@@ -1220,19 +1220,19 @@
         <v>881514</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>843318</v>
+        <v>844381</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>915331</v>
+        <v>918035</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6482474631901687</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.620159108193448</v>
+        <v>0.6209407726981012</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6731160296813766</v>
+        <v>0.6751039825295088</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>299315</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>270136</v>
+        <v>272398</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>327550</v>
+        <v>325417</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4427733819846144</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3996083252210136</v>
+        <v>0.402955184574434</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4845412983311879</v>
+        <v>0.4813849115913335</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>181</v>
@@ -1270,19 +1270,19 @@
         <v>179013</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>156811</v>
+        <v>156646</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>199732</v>
+        <v>201855</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2617752321606452</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2293087102305214</v>
+        <v>0.2290676997681842</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2920734258434916</v>
+        <v>0.2951779273623898</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>461</v>
@@ -1291,19 +1291,19 @@
         <v>478328</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>444511</v>
+        <v>441807</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>516524</v>
+        <v>515461</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3517525368098313</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3268839703186234</v>
+        <v>0.3248960174704911</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.379840891806552</v>
+        <v>0.3790592273018983</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>568248</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>535792</v>
+        <v>540513</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>594833</v>
+        <v>595657</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6062695411686171</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5716419704111986</v>
+        <v>0.5766788209457315</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6346334262105667</v>
+        <v>0.6355126220410088</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>726</v>
@@ -1416,19 +1416,19 @@
         <v>759152</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>730568</v>
+        <v>729195</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>788108</v>
+        <v>787365</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7322750437645533</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7047024858499288</v>
+        <v>0.7033777600102041</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7602053961260897</v>
+        <v>0.7594888522557399</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1327</v>
@@ -1437,19 +1437,19 @@
         <v>1327400</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1286723</v>
+        <v>1287421</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1365891</v>
+        <v>1371500</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6724453510141388</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6518388473592257</v>
+        <v>0.6521922368025476</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6919444113642531</v>
+        <v>0.6947858082103789</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>369038</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342453</v>
+        <v>341629</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>401494</v>
+        <v>396773</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3937304588313829</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3653665737894333</v>
+        <v>0.3644873779589912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4283580295888013</v>
+        <v>0.4233211790542685</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>269</v>
@@ -1487,19 +1487,19 @@
         <v>277552</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>248596</v>
+        <v>249339</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>306136</v>
+        <v>307509</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2677249562354466</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2397946038739103</v>
+        <v>0.2405111477442601</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2952975141500712</v>
+        <v>0.2966222399897958</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>657</v>
@@ -1508,19 +1508,19 @@
         <v>646590</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>608099</v>
+        <v>602490</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>687267</v>
+        <v>686569</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3275546489858612</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3080555886357469</v>
+        <v>0.305214191789622</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3481611526407742</v>
+        <v>0.3478077631974527</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>2039434</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1980352</v>
+        <v>1983491</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2094962</v>
+        <v>2100086</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6242276955569039</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6061439617617165</v>
+        <v>0.6071045534179215</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6412234208557039</v>
+        <v>0.642791807674418</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2523</v>
@@ -1633,19 +1633,19 @@
         <v>2584614</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2537164</v>
+        <v>2532818</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2631908</v>
+        <v>2631371</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7652925706874355</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7512426475852377</v>
+        <v>0.7499558508446812</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7792960309406581</v>
+        <v>0.7791370829611663</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4541</v>
@@ -1654,19 +1654,19 @@
         <v>4624048</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4544056</v>
+        <v>4543884</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4697099</v>
+        <v>4696312</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6959294833155656</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6838903940609194</v>
+        <v>0.6838645647773079</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7069237393564309</v>
+        <v>0.7068052357569956</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1227698</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1172170</v>
+        <v>1167046</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1286780</v>
+        <v>1283641</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3757723044430961</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.358776579144296</v>
+        <v>0.3572081923255819</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3938560382382834</v>
+        <v>0.3928954465820785</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>772</v>
@@ -1704,19 +1704,19 @@
         <v>792675</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>745381</v>
+        <v>745918</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>840125</v>
+        <v>844471</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2347074293125644</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2207039690593418</v>
+        <v>0.2208629170388339</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2487573524147623</v>
+        <v>0.2500441491553189</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1959</v>
@@ -1725,19 +1725,19 @@
         <v>2020373</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1947322</v>
+        <v>1948109</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2100365</v>
+        <v>2100537</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3040705166844344</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2930762606435692</v>
+        <v>0.2931947642430048</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3161096059390808</v>
+        <v>0.316135435222692</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>527488</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>502290</v>
+        <v>504197</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>550760</v>
+        <v>548978</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7509492528811246</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7150762495541834</v>
+        <v>0.7177912497086708</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7840804474619756</v>
+        <v>0.7815437609251701</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>545</v>
@@ -2090,19 +2090,19 @@
         <v>586518</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>565540</v>
+        <v>564572</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>605459</v>
+        <v>605418</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8414293805818528</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.811333904213861</v>
+        <v>0.8099447966766994</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8686026488746105</v>
+        <v>0.8685428245320498</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1048</v>
@@ -2111,19 +2111,19 @@
         <v>1114006</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1083718</v>
+        <v>1082587</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1144708</v>
+        <v>1144768</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7960154631158832</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.774373151801904</v>
+        <v>0.7735645491182865</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8179538483545358</v>
+        <v>0.8179962106000229</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>174940</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>151668</v>
+        <v>153450</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>200138</v>
+        <v>198231</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2490507471188755</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2159195525380245</v>
+        <v>0.2184562390748301</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2849237504458166</v>
+        <v>0.2822087502913292</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -2161,19 +2161,19 @@
         <v>110532</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91591</v>
+        <v>91632</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>131510</v>
+        <v>132478</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1585706194181472</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1313973511253892</v>
+        <v>0.1314571754679495</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.188666095786139</v>
+        <v>0.1900552033233005</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>275</v>
@@ -2182,19 +2182,19 @@
         <v>285472</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>254770</v>
+        <v>254710</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>315760</v>
+        <v>316891</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2039845368841168</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.182046151645464</v>
+        <v>0.1820037893999772</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2256268481980957</v>
+        <v>0.2264354508817137</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>741490</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>708878</v>
+        <v>708822</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>769441</v>
+        <v>769228</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7291760671930388</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6971055156216449</v>
+        <v>0.6970505802652676</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7566621686546766</v>
+        <v>0.7564534029295003</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>789</v>
@@ -2307,19 +2307,19 @@
         <v>861946</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>834745</v>
+        <v>831495</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>887678</v>
+        <v>884710</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8376508013774345</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8112169117897706</v>
+        <v>0.8080577435317715</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8626572990458764</v>
+        <v>0.8597733581177454</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1471</v>
@@ -2328,19 +2328,19 @@
         <v>1603436</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1562344</v>
+        <v>1562845</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1641644</v>
+        <v>1640968</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7837346343912055</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7636495787194642</v>
+        <v>0.7638947882084818</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8024101352689123</v>
+        <v>0.8020799141453482</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>275398</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>247447</v>
+        <v>247660</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>308010</v>
+        <v>308066</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2708239328069612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2433378313453235</v>
+        <v>0.2435465970704999</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3028944843783551</v>
+        <v>0.3029494197347324</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>148</v>
@@ -2378,19 +2378,19 @@
         <v>167058</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>141326</v>
+        <v>144294</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>194259</v>
+        <v>197509</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1623491986225654</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1373427009541236</v>
+        <v>0.1402266418822547</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1887830882102294</v>
+        <v>0.1919422564682288</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>401</v>
@@ -2399,19 +2399,19 @@
         <v>442455</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>404247</v>
+        <v>404923</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>483547</v>
+        <v>483046</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2162653656087945</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1975898647310877</v>
+        <v>0.1979200858546518</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2363504212805358</v>
+        <v>0.2361052117915183</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>498088</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>470340</v>
+        <v>468006</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>525201</v>
+        <v>523261</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6574348757163723</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6208094741224552</v>
+        <v>0.6177298356741464</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6932216349295433</v>
+        <v>0.6906608674206377</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>551</v>
@@ -2524,19 +2524,19 @@
         <v>603066</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>577165</v>
+        <v>576035</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>627985</v>
+        <v>625783</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7759731513272962</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7426461256411656</v>
+        <v>0.7411921995992733</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8080371526564036</v>
+        <v>0.8052032534733153</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1002</v>
@@ -2545,19 +2545,19 @@
         <v>1101154</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1063040</v>
+        <v>1062636</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1132927</v>
+        <v>1138303</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7174590009330117</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6926258854482004</v>
+        <v>0.6923623818288582</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7381609350782726</v>
+        <v>0.7416633893168827</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>259535</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>232422</v>
+        <v>234362</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>287283</v>
+        <v>289617</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3425651242836277</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3067783650704568</v>
+        <v>0.3093391325793623</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3791905258775448</v>
+        <v>0.3822701643258536</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>154</v>
@@ -2595,19 +2595,19 @@
         <v>174108</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>149189</v>
+        <v>151391</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>200009</v>
+        <v>201139</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2240268486727038</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1919628473435964</v>
+        <v>0.1947967465266847</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2573538743588344</v>
+        <v>0.2588078004007267</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>392</v>
@@ -2616,19 +2616,19 @@
         <v>433643</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>401870</v>
+        <v>396494</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>471757</v>
+        <v>472161</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2825409990669883</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2618390649217276</v>
+        <v>0.2583366106831176</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3073741145517996</v>
+        <v>0.3076376181711418</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>666395</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>635224</v>
+        <v>636196</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>692094</v>
+        <v>693414</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.703141737739697</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6702525108398705</v>
+        <v>0.6712775422239021</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7302575391373187</v>
+        <v>0.7316511900379317</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>830</v>
@@ -2741,19 +2741,19 @@
         <v>870228</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>844238</v>
+        <v>844959</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>891480</v>
+        <v>893528</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8272905103935003</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8025828186826243</v>
+        <v>0.8032688550781567</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8474938863759113</v>
+        <v>0.849441626277235</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1462</v>
@@ -2762,19 +2762,19 @@
         <v>1536623</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1496801</v>
+        <v>1499401</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1573794</v>
+        <v>1572322</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7684495903022242</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7485353026582061</v>
+        <v>0.7498355758104963</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7870386223113948</v>
+        <v>0.7863025572732036</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>281344</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>255645</v>
+        <v>254325</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>312515</v>
+        <v>311543</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.296858262260303</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2697424608626814</v>
+        <v>0.2683488099620683</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3297474891601299</v>
+        <v>0.3287224577760979</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>173</v>
@@ -2812,19 +2812,19 @@
         <v>181673</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>160421</v>
+        <v>158373</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>207663</v>
+        <v>206942</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1727094896064996</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1525061136240887</v>
+        <v>0.1505583737227649</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1974171813173757</v>
+        <v>0.1967311449218433</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>451</v>
@@ -2833,19 +2833,19 @@
         <v>463017</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>425846</v>
+        <v>427318</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>502839</v>
+        <v>500239</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2315504096977758</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2129613776886052</v>
+        <v>0.2136974427267965</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2514646973417939</v>
+        <v>0.2501644241895038</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>2433461</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2378512</v>
+        <v>2377956</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2489437</v>
+        <v>2485272</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7105663019813385</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6945214692876374</v>
+        <v>0.6943590784963801</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7269112551938095</v>
+        <v>0.7256949718838004</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2715</v>
@@ -2958,19 +2958,19 @@
         <v>2921758</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2871138</v>
+        <v>2869315</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2970819</v>
+        <v>2965915</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8218431012966406</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8076043635527712</v>
+        <v>0.8070916908929641</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8356432116062803</v>
+        <v>0.8342635721708344</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4983</v>
@@ -2979,19 +2979,19 @@
         <v>5355219</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5278900</v>
+        <v>5280112</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5423511</v>
+        <v>5424950</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7672445647824615</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.756310306473623</v>
+        <v>0.7564840052047532</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7770287606178909</v>
+        <v>0.777234981392992</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>991217</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>935241</v>
+        <v>939406</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1046166</v>
+        <v>1046722</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2894336980186615</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2730887448061906</v>
+        <v>0.2743050281161997</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.305478530712363</v>
+        <v>0.3056409215036199</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>580</v>
@@ -3029,19 +3029,19 @@
         <v>633371</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>584310</v>
+        <v>589214</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>683991</v>
+        <v>685814</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1781568987033594</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1643567883937198</v>
+        <v>0.1657364278291657</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1923956364472288</v>
+        <v>0.192908309107036</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1519</v>
@@ -3050,19 +3050,19 @@
         <v>1624588</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1556296</v>
+        <v>1554857</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1700907</v>
+        <v>1699695</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2327554352175384</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.222971239382109</v>
+        <v>0.222765018607008</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2436896935263771</v>
+        <v>0.2435159947952464</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>530204</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>510383</v>
+        <v>508647</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>552135</v>
+        <v>551567</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7857200286797903</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.756347208883609</v>
+        <v>0.7537751776077788</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8182198709196158</v>
+        <v>0.8173782477051512</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>555</v>
@@ -3415,19 +3415,19 @@
         <v>563424</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>544244</v>
+        <v>542277</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>581426</v>
+        <v>579940</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8432256316014681</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8145210609381477</v>
+        <v>0.8115765650381689</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8701675613488077</v>
+        <v>0.8679435043596375</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1074</v>
@@ -3436,19 +3436,19 @@
         <v>1093628</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1063749</v>
+        <v>1063286</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1120733</v>
+        <v>1120979</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8143310397335658</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7920831006539024</v>
+        <v>0.7917379756959956</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8345142043275239</v>
+        <v>0.8346973804771445</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>144596</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>122665</v>
+        <v>123233</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>164417</v>
+        <v>166153</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2142799713202097</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1817801290803845</v>
+        <v>0.1826217522948489</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.243652791116391</v>
+        <v>0.2462248223922213</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>106</v>
@@ -3486,19 +3486,19 @@
         <v>104753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>86751</v>
+        <v>88237</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>123933</v>
+        <v>125900</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1567743683985318</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1298324386511922</v>
+        <v>0.1320564956403621</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1854789390618521</v>
+        <v>0.1884234349618311</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>239</v>
@@ -3507,19 +3507,19 @@
         <v>249349</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>222244</v>
+        <v>221998</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>279228</v>
+        <v>279691</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1856689602664342</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1654857956724761</v>
+        <v>0.1653026195228555</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2079168993460976</v>
+        <v>0.2082620243040044</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>777844</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>751329</v>
+        <v>750596</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>806519</v>
+        <v>805092</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7615800437513183</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7356201317305204</v>
+        <v>0.7349024834914937</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7896560303167358</v>
+        <v>0.788258809271978</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>822</v>
@@ -3632,19 +3632,19 @@
         <v>879035</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>851407</v>
+        <v>856774</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>900374</v>
+        <v>902436</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8449360457419498</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8183798554128997</v>
+        <v>0.8235383076303977</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8654474003967958</v>
+        <v>0.867429395259563</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1549</v>
@@ -3653,19 +3653,19 @@
         <v>1656879</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1620180</v>
+        <v>1618217</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1694569</v>
+        <v>1692346</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8036421748240932</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7858420184695701</v>
+        <v>0.784889814535106</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8219231967912903</v>
+        <v>0.8208449494120658</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>243511</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>214836</v>
+        <v>216263</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>270026</v>
+        <v>270759</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2384199562486818</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2103439696832637</v>
+        <v>0.2117411907280222</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2643798682694794</v>
+        <v>0.2650975165085064</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>153</v>
@@ -3703,19 +3703,19 @@
         <v>161322</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>139983</v>
+        <v>137921</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>188950</v>
+        <v>183583</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1550639542580502</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1345525996032042</v>
+        <v>0.1325706047404371</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1816201445871002</v>
+        <v>0.1764616923696023</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>376</v>
@@ -3724,19 +3724,19 @@
         <v>404833</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>367143</v>
+        <v>369366</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>441532</v>
+        <v>443495</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1963578251759068</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1780768032087098</v>
+        <v>0.1791550505879343</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.21415798153043</v>
+        <v>0.2151101854648945</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>531782</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>504879</v>
+        <v>503237</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>556431</v>
+        <v>554848</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7062398724466524</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6705103047246521</v>
+        <v>0.6683295563150204</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7389743425849762</v>
+        <v>0.7368723884187011</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>574</v>
@@ -3849,19 +3849,19 @@
         <v>616301</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>591504</v>
+        <v>593080</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>637145</v>
+        <v>638756</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7860722192567785</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7544441522048094</v>
+        <v>0.7564546068078647</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.812658621938634</v>
+        <v>0.8147130438058913</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1060</v>
@@ -3870,19 +3870,19 @@
         <v>1148084</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1113262</v>
+        <v>1114025</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1181144</v>
+        <v>1183098</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7469623914579578</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7243062979613306</v>
+        <v>0.7248028527284597</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7684719692027143</v>
+        <v>0.7697428372546875</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>221195</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>196546</v>
+        <v>198129</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>248098</v>
+        <v>249740</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2937601275533475</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2610256574150238</v>
+        <v>0.2631276115812989</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.329489695275348</v>
+        <v>0.3316704436849796</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>161</v>
@@ -3920,19 +3920,19 @@
         <v>167725</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>146881</v>
+        <v>145270</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>192522</v>
+        <v>190946</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2139277807432215</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1873413780613661</v>
+        <v>0.185286956194109</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2455558477951906</v>
+        <v>0.2435453931921353</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>365</v>
@@ -3941,19 +3941,19 @@
         <v>388920</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>355860</v>
+        <v>353906</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>423742</v>
+        <v>422979</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2530376085420422</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2315280307972858</v>
+        <v>0.2302571627453125</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2756937020386694</v>
+        <v>0.2751971472715403</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>673523</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>644927</v>
+        <v>644238</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>702091</v>
+        <v>701034</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7192742749221036</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6887355979758663</v>
+        <v>0.6880007417411595</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7497828560348383</v>
+        <v>0.7486548074409299</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>741</v>
@@ -4066,19 +4066,19 @@
         <v>816929</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>788010</v>
+        <v>788562</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>841662</v>
+        <v>841360</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7863533514171143</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7585165617820739</v>
+        <v>0.7590480569430355</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8101609167184647</v>
+        <v>0.8098701695433618</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1416</v>
@@ -4087,19 +4087,19 @@
         <v>1490451</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1449187</v>
+        <v>1452511</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1526234</v>
+        <v>1527866</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7545540821502731</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7336638921820627</v>
+        <v>0.7353467113533079</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7726692661525363</v>
+        <v>0.7734959646930484</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>262869</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>234301</v>
+        <v>235358</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>291465</v>
+        <v>292154</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2807257250778964</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2502171439651617</v>
+        <v>0.25134519255907</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3112644020241336</v>
+        <v>0.3119992582588404</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>213</v>
@@ -4137,19 +4137,19 @@
         <v>221954</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>197221</v>
+        <v>197523</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>250873</v>
+        <v>250321</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2136466485828857</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1898390832815354</v>
+        <v>0.1901298304566383</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2414834382179261</v>
+        <v>0.2409519430569645</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>469</v>
@@ -4158,19 +4158,19 @@
         <v>484823</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>449040</v>
+        <v>447408</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>526087</v>
+        <v>522763</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2454459178497269</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2273307338474636</v>
+        <v>0.2265040353069516</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2663361078179371</v>
+        <v>0.2646532886466922</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>2513353</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2459530</v>
+        <v>2456560</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2564680</v>
+        <v>2561486</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.742382130370966</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7264844021489205</v>
+        <v>0.7256070227215125</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7575429209626804</v>
+        <v>0.7565996703382448</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2692</v>
@@ -4283,19 +4283,19 @@
         <v>2875689</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2820278</v>
+        <v>2828469</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2917503</v>
+        <v>2922188</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8143099857757806</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.798619190484875</v>
+        <v>0.8009387156837005</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8261502981281649</v>
+        <v>0.8274769917196019</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5099</v>
@@ -4304,19 +4304,19 @@
         <v>5389042</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5321439</v>
+        <v>5316803</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5457544</v>
+        <v>5459842</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7791047487428887</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7693312958272205</v>
+        <v>0.7686610544541309</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7890082952081113</v>
+        <v>0.7893404346907288</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>872171</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>820844</v>
+        <v>824038</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>925994</v>
+        <v>928964</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.257617869629034</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2424570790373195</v>
+        <v>0.2434003296617553</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2735155978510794</v>
+        <v>0.2743929772784876</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>633</v>
@@ -4354,19 +4354,19 @@
         <v>655754</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>613940</v>
+        <v>609255</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>711165</v>
+        <v>702974</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1856900142242194</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.173849701871835</v>
+        <v>0.1725230082803981</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2013808095151249</v>
+        <v>0.1990612843162996</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1449</v>
@@ -4375,19 +4375,19 @@
         <v>1527925</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1459423</v>
+        <v>1457125</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1595528</v>
+        <v>1600164</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2208952512571112</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2109917047918886</v>
+        <v>0.2106595653092711</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2306687041727795</v>
+        <v>0.2313389455458691</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>482922</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>451407</v>
+        <v>454479</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>507308</v>
+        <v>509745</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7004873997833886</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6547755261284017</v>
+        <v>0.6592314616072799</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7358598936140751</v>
+        <v>0.739394857179371</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>973</v>
@@ -4740,19 +4740,19 @@
         <v>571723</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>551745</v>
+        <v>552032</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>588677</v>
+        <v>591257</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7802408456364631</v>
+        <v>0.7802408456364633</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7529760637944984</v>
+        <v>0.7533675643821561</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.803378282440838</v>
+        <v>0.8068988946035971</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1505</v>
@@ -4761,19 +4761,19 @@
         <v>1054645</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1016689</v>
+        <v>1021062</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1085812</v>
+        <v>1088969</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7415794641412632</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7148901634653378</v>
+        <v>0.7179647836979136</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7634945299776966</v>
+        <v>0.7657145230592486</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>206486</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>182100</v>
+        <v>179663</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>238001</v>
+        <v>234929</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2995126002166113</v>
+        <v>0.2995126002166114</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2641401063859249</v>
+        <v>0.2606051428206289</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3452244738715983</v>
+        <v>0.3407685383927203</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>265</v>
@@ -4811,19 +4811,19 @@
         <v>161029</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>144075</v>
+        <v>141495</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>181007</v>
+        <v>180720</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2197591543635368</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.196621717559162</v>
+        <v>0.1931011053964031</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2470239362055016</v>
+        <v>0.2466324356178438</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>462</v>
@@ -4832,19 +4832,19 @@
         <v>367516</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>336349</v>
+        <v>333192</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>405472</v>
+        <v>401099</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2584205358587369</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2365054700223033</v>
+        <v>0.2342854769407516</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2851098365346623</v>
+        <v>0.2820352163020865</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>744337</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>709688</v>
+        <v>708892</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>775733</v>
+        <v>774937</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7120847905233181</v>
+        <v>0.7120847905233183</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6789372441594325</v>
+        <v>0.6781757349763976</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7421205137342847</v>
+        <v>0.7413597434920834</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1187</v>
@@ -4957,19 +4957,19 @@
         <v>828824</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>802618</v>
+        <v>805070</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>855591</v>
+        <v>854209</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7760590955765485</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7515217175378671</v>
+        <v>0.7538173611491661</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8011223260866556</v>
+        <v>0.7998282225161749</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1895</v>
@@ -4978,19 +4978,19 @@
         <v>1573161</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1532615</v>
+        <v>1527625</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1613065</v>
+        <v>1612989</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7444155324410967</v>
+        <v>0.7444155324410966</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7252293562046935</v>
+        <v>0.7228680604932952</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7632983098753113</v>
+        <v>0.7632621325908562</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>300955</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>269559</v>
+        <v>270355</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>335604</v>
+        <v>336400</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2879152094766818</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2578794862657149</v>
+        <v>0.2586402565079165</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3210627558405672</v>
+        <v>0.3218242650236024</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>325</v>
@@ -5028,19 +5028,19 @@
         <v>239167</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>212400</v>
+        <v>213782</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>265373</v>
+        <v>262921</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2239409044234514</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1988776739133447</v>
+        <v>0.2001717774838248</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2484782824621333</v>
+        <v>0.2461826388508339</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>578</v>
@@ -5049,19 +5049,19 @@
         <v>540122</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>500218</v>
+        <v>500294</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>580668</v>
+        <v>585658</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2555844675589034</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2367016901246886</v>
+        <v>0.2367378674091438</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2747706437953061</v>
+        <v>0.277131939506705</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>491173</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>458977</v>
+        <v>457867</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>528726</v>
+        <v>523506</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6132972569180076</v>
+        <v>0.6132972569180075</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5730954711641811</v>
+        <v>0.5717103244031724</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6601864602271724</v>
+        <v>0.6536689510569597</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>805</v>
@@ -5174,19 +5174,19 @@
         <v>612647</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>586889</v>
+        <v>588127</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>638633</v>
+        <v>632850</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7565143823190211</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7247078829413599</v>
+        <v>0.7262358967703179</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.788601883499348</v>
+        <v>0.7814618376719057</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1247</v>
@@ -5195,19 +5195,19 @@
         <v>1103821</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1065527</v>
+        <v>1061535</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1150115</v>
+        <v>1141521</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6853040093425681</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6615297300748914</v>
+        <v>0.6590514443503439</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7140459492827295</v>
+        <v>0.7087099417679416</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>309700</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>272147</v>
+        <v>277367</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>341896</v>
+        <v>343006</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3867027430819924</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3398135397728289</v>
+        <v>0.3463310489430403</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4269045288358189</v>
+        <v>0.4282896755968277</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>240</v>
@@ -5245,19 +5245,19 @@
         <v>197182</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>171196</v>
+        <v>176979</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>222940</v>
+        <v>221702</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2434856176809788</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.211398116500652</v>
+        <v>0.2185381623280944</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2752921170586401</v>
+        <v>0.2737641032296823</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>472</v>
@@ -5266,19 +5266,19 @@
         <v>506881</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>460587</v>
+        <v>469181</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>545175</v>
+        <v>549167</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3146959906574321</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2859540507172704</v>
+        <v>0.2912900582320587</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3384702699251087</v>
+        <v>0.3409485556496565</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>665574</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>629614</v>
+        <v>633693</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>697643</v>
+        <v>699253</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6753296014379896</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6388425264633403</v>
+        <v>0.6429808483793226</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7078679216510291</v>
+        <v>0.7095020417091458</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1197</v>
@@ -5391,19 +5391,19 @@
         <v>848991</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>822871</v>
+        <v>821474</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>875501</v>
+        <v>874425</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7617762804320098</v>
+        <v>0.7617762804320097</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7383396833440629</v>
+        <v>0.7370860088559833</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7855632244628311</v>
+        <v>0.7845977204628163</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1921</v>
@@ -5412,19 +5412,19 @@
         <v>1514565</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1470768</v>
+        <v>1474024</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1558828</v>
+        <v>1562362</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7212066416989137</v>
+        <v>0.7212066416989135</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7003511580203646</v>
+        <v>0.7019019253703614</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7422838716461849</v>
+        <v>0.7439668448194813</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>319981</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>287912</v>
+        <v>286302</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>355941</v>
+        <v>351862</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3246703985620104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2921320783489709</v>
+        <v>0.2904979582908541</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3611574735366597</v>
+        <v>0.3570191516206773</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>358</v>
@@ -5462,19 +5462,19 @@
         <v>265497</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>238987</v>
+        <v>240063</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>291617</v>
+        <v>293014</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2382237195679901</v>
+        <v>0.23822371956799</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2144367755371692</v>
+        <v>0.2154022795371839</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2616603166559373</v>
+        <v>0.2629139911440171</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>636</v>
@@ -5483,19 +5483,19 @@
         <v>585478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>541215</v>
+        <v>537681</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>629275</v>
+        <v>626019</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2787933583010864</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2577161283538151</v>
+        <v>0.2560331551805189</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2996488419796353</v>
+        <v>0.2980980746296387</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>2384006</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2319862</v>
+        <v>2315205</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2446000</v>
+        <v>2443762</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6770574223006476</v>
+        <v>0.6770574223006478</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6588406325784772</v>
+        <v>0.6575178581577757</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6946638728315823</v>
+        <v>0.6940281275918756</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4162</v>
@@ -5608,19 +5608,19 @@
         <v>2862185</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2812791</v>
+        <v>2814670</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2905269</v>
+        <v>2906589</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7683594315325832</v>
+        <v>0.7683594315325835</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7550995737333459</v>
+        <v>0.7556038702678599</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7799253216194872</v>
+        <v>0.7802798375227298</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6568</v>
@@ -5629,19 +5629,19 @@
         <v>5246191</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5169389</v>
+        <v>5161962</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5324736</v>
+        <v>5322271</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7239932021773502</v>
+        <v>0.7239932021773501</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7133943232493778</v>
+        <v>0.7123693661084728</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7348326709550341</v>
+        <v>0.7344924892836033</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1137122</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1075128</v>
+        <v>1077366</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1201266</v>
+        <v>1205923</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3229425776993523</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3053361271684176</v>
+        <v>0.3059718724081247</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3411593674215225</v>
+        <v>0.3424821418422246</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1188</v>
@@ -5679,19 +5679,19 @@
         <v>862875</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>819791</v>
+        <v>818471</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>912269</v>
+        <v>910390</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2316405684674167</v>
+        <v>0.2316405684674166</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2200746783805126</v>
+        <v>0.2197201624772699</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2449004262666542</v>
+        <v>0.2443961297321402</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2148</v>
@@ -5700,19 +5700,19 @@
         <v>1999997</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1921452</v>
+        <v>1923917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2076799</v>
+        <v>2084226</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2760067978226499</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2651673290449659</v>
+        <v>0.2655075107163967</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2866056767506223</v>
+        <v>0.2876306338915271</v>
       </c>
     </row>
     <row r="18">
